--- a/E-Paper-App-Server-for-5.65_APIテスト仕様書.xlsx
+++ b/E-Paper-App-Server-for-5.65_APIテスト仕様書.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCD\Desktop\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCD\Desktop\work\E-Paper-App-Server-for-5.65\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419ACE29-EB59-4361-B23B-0A59D446E941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1882BE3-ABBD-41D7-BA2A-EE04640F1C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="819" xr2:uid="{8CD9D656-08BE-49B5-86F4-7BD006E97C73}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="819" activeTab="4" xr2:uid="{8CD9D656-08BE-49B5-86F4-7BD006E97C73}"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="1" r:id="rId1"/>
     <sheet name="事前設定" sheetId="8" r:id="rId2"/>
     <sheet name="署名付きURL取得" sheetId="2" r:id="rId3"/>
     <sheet name="画像リスト取得" sheetId="3" r:id="rId4"/>
-    <sheet name="画像要求" sheetId="4" r:id="rId5"/>
-    <sheet name="画像情報更新" sheetId="5" r:id="rId6"/>
-    <sheet name="画像削除" sheetId="6" r:id="rId7"/>
-    <sheet name="テンプレート" sheetId="7" r:id="rId8"/>
+    <sheet name="画像リスト取得(範囲取得)" sheetId="9" r:id="rId5"/>
+    <sheet name="画像要求" sheetId="4" r:id="rId6"/>
+    <sheet name="画像情報更新" sheetId="5" r:id="rId7"/>
+    <sheet name="画像削除" sheetId="6" r:id="rId8"/>
+    <sheet name="テンプレート" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="174">
   <si>
     <t>実施日</t>
     <rPh sb="0" eb="3">
@@ -1482,6 +1483,1169 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像が保存されていない場合画像要求の項番2~4を実施</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウバン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「curl https://(デプロイ時に作成されたID).execute-api.localhost.localstack.cloud:4566/dev/images/count?(クエリパラメータ)」コマンドを準備する
+2．クエリパラメータを「START=1&amp;COUNT=1」に設定してコマンドを実行する</t>
+    <rPh sb="109" eb="111">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クエリパラメータの
+STARTは開始地点
+COUNTは取得件数
+を指す</t>
+    <rPh sb="16" eb="20">
+      <t>カイシチテン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケンスウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像リスト取得API(範囲取得)を実行する
+(成功ケース)</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「curl https://(デプロイ時に作成されたID).execute-api.localhost.localstack.cloud:4566/dev/images/count?(クエリパラメータ)」コマンドを準備する
+2．クエリパラメータを「START=1000&amp;COUNT=1000」に設定してコマンドを実行する</t>
+    <rPh sb="109" eb="111">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「curl https://(デプロイ時に作成されたID).execute-api.localhost.localstack.cloud:4566/dev/images/count?(クエリパラメータ)」コマンドを準備する
+2．クエリパラメータを「START=1000&amp;COUNT=1」に設定してコマンドを実行する</t>
+    <rPh sb="109" eb="111">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像リスト取得API(範囲取得)を実行する
+(STARTが総件数を超える場合)</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ソウケンスウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「{"result":"OK","data"：[]}」
+2.resultがOKと表示されている
+3.データの中身が存在しないことを確認</t>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像リスト取得API(範囲取得)を実行する
+(COUNTが総件数を超える場合)</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>ソウケンスウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「curl https://(デプロイ時に作成されたID).execute-api.localhost.localstack.cloud:4566/dev/images/count?(クエリパラメータ)」コマンドを準備する
+2．クエリパラメータを「START=1&amp;COUNT=1000」に設定してコマンドを実行する</t>
+    <rPh sb="109" eb="111">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「{"result":"OK","data"~」
+2.resultがOKと表示されている
+3.データの中身が存在することを確認(左記のパラメータの場合上限を1000件として全てのデータを取得できる)</t>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像リスト取得API(範囲取得)を実行する
+(START及びCOUNTが総件数を超える場合)</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ソウケンスウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像リスト取得API(範囲取得)を実行する
+(STARTを0とした場合)</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「curl https://(デプロイ時に作成されたID).execute-api.localhost.localstack.cloud:4566/dev/images/count?(クエリパラメータ)」コマンドを準備する
+2．クエリパラメータを「START=0&amp;COUNT=1」に設定してコマンドを実行する</t>
+    <rPh sb="109" eb="111">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「{"result":"NG","data":[],"result_detail":"The query parameters are invalid."」
+2.resultがNGと表示されている
+3.result_detailのメッセージが"The query parameters are invalid."であることを確認</t>
+    <rPh sb="93" eb="95">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像リスト取得API(範囲取得)を実行する
+(COUNTを0とした場合)</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「curl https://(デプロイ時に作成されたID).execute-api.localhost.localstack.cloud:4566/dev/images/count?(クエリパラメータ)」コマンドを準備する
+2．クエリパラメータを「START=1&amp;COUNT=0」に設定してコマンドを実行する</t>
+    <rPh sb="109" eb="111">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像リスト取得API(範囲取得)を実行する
+(START及びCOUNTを0とした場合)</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「curl https://(デプロイ時に作成されたID).execute-api.localhost.localstack.cloud:4566/dev/images/count?(クエリパラメータ)」コマンドを準備する
+2．クエリパラメータを「START=0&amp;COUNT=0」に設定してコマンドを実行する</t>
+    <rPh sb="109" eb="111">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像リスト取得API(範囲取得)を実行する
+(STARTを負の数とした場合)</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「curl https://(デプロイ時に作成されたID).execute-api.localhost.localstack.cloud:4566/dev/images/count?(クエリパラメータ)」コマンドを準備する
+2．クエリパラメータを「START=-1&amp;COUNT=1」に設定してコマンドを実行する</t>
+    <rPh sb="109" eb="111">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像リスト取得API(範囲取得)を実行する
+(COUNTを負の数とした場合)</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「curl https://(デプロイ時に作成されたID).execute-api.localhost.localstack.cloud:4566/dev/images/count?(クエリパラメータ)」コマンドを準備する
+2．クエリパラメータを「START=1&amp;COUNT=-1」に設定してコマンドを実行する</t>
+    <rPh sb="109" eb="111">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像リスト取得API(範囲取得)を実行する
+(START及びCOUNTを負の数とした場合)</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「curl https://(デプロイ時に作成されたID).execute-api.localhost.localstack.cloud:4566/dev/images/count?(クエリパラメータ)」コマンドを準備する
+2．クエリパラメータを「START=-1&amp;COUNT=-1」に設定してコマンドを実行する</t>
+    <rPh sb="109" eb="111">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像リスト取得API(範囲取得)を実行する
+(STARTに不正な文字列が入力された場合)</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像リスト取得API(範囲取得)を実行する
+(COUNTに不正な文字列が入力された場合)</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「curl https://(デプロイ時に作成されたID).execute-api.localhost.localstack.cloud:4566/dev/images/count?(クエリパラメータ)」コマンドを準備する
+2．クエリパラメータを「START=1&amp;COUNT=test」に設定してコマンドを実行する</t>
+    <rPh sb="109" eb="111">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像リスト取得API(範囲取得)を実行する
+(START及びCOUNTに不正な文字列が入力された場合)</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「curl https://(デプロイ時に作成されたID).execute-api.localhost.localstack.cloud:4566/dev/images/count?(クエリパラメータ)」コマンドを準備する
+2．クエリパラメータを「START=test&amp;COUNT=test」に設定してコマンドを実行する</t>
+    <rPh sb="109" eb="111">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像リスト取得API(範囲取得)を実行する
+(STARTに文字列が入力されない場合)</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「curl https://(デプロイ時に作成されたID).execute-api.localhost.localstack.cloud:4566/dev/images/count?(クエリパラメータ)」コマンドを準備する
+2．クエリパラメータを「START=&amp;COUNT=1」に設定してコマンドを実行する</t>
+    <rPh sb="109" eb="111">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像リスト取得API(範囲取得)を実行する
+(COUNTに文字列が入力されない場合)</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像リスト取得API(範囲取得)を実行する
+(START及びCOUNTに文字列が入力されない場合)</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「curl https://(デプロイ時に作成されたID).execute-api.localhost.localstack.cloud:4566/dev/images/count?(クエリパラメータ)」コマンドを準備する
+2．クエリパラメータを「START=1&amp;COUNT=」に設定してコマンドを実行する</t>
+    <rPh sb="109" eb="111">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「curl https://(デプロイ時に作成されたID).execute-api.localhost.localstack.cloud:4566/dev/images/count?(クエリパラメータ)」コマンドを準備する
+2．クエリパラメータを「START=&amp;COUNT=」に設定してコマンドを実行する</t>
+    <rPh sb="109" eb="111">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像リスト取得API(範囲取得)を実行する
+(START文字列が不正の場合)</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像リスト取得API(範囲取得)を実行する
+(COUNT文字列が不正の場合)</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像リスト取得API(範囲取得)を実行する
+(START及びCOUNTが不正の場合)</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「curl https://(デプロイ時に作成されたID).execute-api.localhost.localstack.cloud:4566/dev/images/count?(クエリパラメータ)」コマンドを準備する
+2．クエリパラメータを「STA=1&amp;COUNT=1」に設定してコマンドを実行する</t>
+    <rPh sb="109" eb="111">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「curl https://(デプロイ時に作成されたID).execute-api.localhost.localstack.cloud:4566/dev/images/count?(クエリパラメータ)」コマンドを準備する
+2．クエリパラメータを「START=1&amp;COUNTER=1」に設定してコマンドを実行する</t>
+    <rPh sb="109" eb="111">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「curl https://(デプロイ時に作成されたID).execute-api.localhost.localstack.cloud:4566/dev/images/count?(クエリパラメータ)」コマンドを準備する
+2．クエリパラメータを「STARTER=1&amp;CO=1」に設定してコマンドを実行する</t>
+    <rPh sb="109" eb="111">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像リスト取得API(範囲取得)を実行する
+(不要なクエリパラメータが存在する場合)</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「curl https://(デプロイ時に作成されたID).execute-api.localhost.localstack.cloud:4566/dev/images/count?(クエリパラメータ)」コマンドを準備する
+2．クエリパラメータを「START=1&amp;COUNT=1&amp;TEST=1」に設定してコマンドを実行する</t>
+    <rPh sb="109" eb="111">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像リスト取得API(範囲取得)を実行する
+(不要なクエリパラメータがSTARTの代わりに存在する場合)</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「curl https://(デプロイ時に作成されたID).execute-api.localhost.localstack.cloud:4566/dev/images/count?(クエリパラメータ)」コマンドを準備する
+2．クエリパラメータを「TEST=1&amp;COUNT=1」に設定してコマンドを実行する</t>
+    <rPh sb="109" eb="111">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像リスト取得API(範囲取得)を実行する
+(不要なクエリパラメータがCOUNTの代わりに存在する場合)</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「curl https://(デプロイ時に作成されたID).execute-api.localhost.localstack.cloud:4566/dev/images/count?(クエリパラメータ)」コマンドを準備する
+2．クエリパラメータを「START=1&amp;TEST=1」に設定してコマンドを実行する</t>
+    <rPh sb="109" eb="111">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像リスト取得API(範囲取得)を実行する
+(不要なクエリパラメータのみが存在する場合)</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「curl https://(デプロイ時に作成されたID).execute-api.localhost.localstack.cloud:4566/dev/images/count?(クエリパラメータ)」コマンドを準備する
+2．クエリパラメータを「TEST=1」に設定してコマンドを実行する</t>
+    <rPh sb="109" eb="111">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画像リスト取得API(範囲取得)を実行する
+(クエリパラメータが存在しない場合)</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「curl https://(デプロイ時に作成されたID).execute-api.localhost.localstack.cloud:4566/dev/images/count?(クエリパラメータ)」コマンドを準備する
+2．クエリパラメータを「」に設定してコマンドを実行する</t>
+    <rPh sb="109" eb="111">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.「curl https://(デプロイ時に作成されたID).execute-api.localhost.localstack.cloud:4566/dev/images/count?(クエリパラメータ)」コマンドを準備する
+2．クエリパラメータを「START=test&amp;COUNT=1」に設定してコマンドを実行する</t>
+    <rPh sb="109" eb="111">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1812,7 +2976,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1897,6 +3061,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1936,8 +3103,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2367,6 +3537,61 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>289560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4324571</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1249680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE810FBF-8055-4DAF-9166-7F87F9B79CAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7894320" y="1203960"/>
+          <a:ext cx="4286471" cy="960120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
@@ -2417,7 +3642,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2472,7 +3697,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2826,7 +4051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632ECA73-91E8-4148-AB10-0417DC1C9F0D}">
   <dimension ref="A4:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:J15"/>
     </sheetView>
   </sheetViews>
@@ -2839,143 +4064,143 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="32">
         <v>45469</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="3" t="s">
@@ -3058,7 +4283,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3073,14 +4298,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="22" t="s">
         <v>10</v>
       </c>
@@ -3089,14 +4314,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
@@ -4404,7 +5629,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4419,14 +5644,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="22" t="s">
         <v>10</v>
       </c>
@@ -4435,14 +5660,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
@@ -5720,12 +6945,1585 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0003EFF-F019-4869-BB35-A2E7277B6B94}">
+  <dimension ref="A1:G204"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="9"/>
+    <col min="3" max="3" width="35.5" style="20" customWidth="1"/>
+    <col min="4" max="4" width="54.09765625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="59.09765625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="35.8984375" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="23">
+        <v>45495</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="11"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="103.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="14">
+        <v>1</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+      <c r="A6" s="14">
+        <f>A5+1</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="42"/>
+    </row>
+    <row r="7" spans="1:7" ht="97.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="14">
+        <f t="shared" ref="A7:A70" si="0">A6+1</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.45">
+      <c r="A8" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.45">
+      <c r="A10" s="14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.45">
+      <c r="A11" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.45">
+      <c r="A12" s="14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.45">
+      <c r="A13" s="14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="90" x14ac:dyDescent="0.45">
+      <c r="A14" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.45">
+      <c r="A15" s="14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.45">
+      <c r="A16" s="14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="90" x14ac:dyDescent="0.45">
+      <c r="A17" s="14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="90" x14ac:dyDescent="0.45">
+      <c r="A18" s="14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="90" x14ac:dyDescent="0.45">
+      <c r="A19" s="14">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="90" x14ac:dyDescent="0.45">
+      <c r="A20" s="14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="90" x14ac:dyDescent="0.45">
+      <c r="A21" s="14">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="90" x14ac:dyDescent="0.45">
+      <c r="A22" s="14">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="90" x14ac:dyDescent="0.45">
+      <c r="A23" s="14">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="90" x14ac:dyDescent="0.45">
+      <c r="A24" s="14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="90" x14ac:dyDescent="0.45">
+      <c r="A25" s="14">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="90" x14ac:dyDescent="0.45">
+      <c r="A26" s="14">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="90" x14ac:dyDescent="0.45">
+      <c r="A27" s="14">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="90" x14ac:dyDescent="0.45">
+      <c r="A28" s="14">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="90" x14ac:dyDescent="0.45">
+      <c r="A29" s="14">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="90" x14ac:dyDescent="0.45">
+      <c r="A30" s="14">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.45">
+      <c r="A31" s="14">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="14">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" s="14">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" s="14">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" s="14">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" s="14">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" s="14">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" s="14">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" s="14">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" s="14">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" s="14">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" s="14">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" s="14">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44" s="14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45" s="14">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A46" s="14">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47" s="14">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A48" s="14">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" s="14">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" s="14">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" s="14">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" s="14">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" s="14">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" s="14">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" s="14">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56" s="14">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57" s="14">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58" s="14">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" s="14">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60" s="14">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61" s="14">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A62" s="14">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" s="14">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64" s="14">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" s="14">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66" s="14">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67" s="14">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68" s="14">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69" s="14">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A70" s="14">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A71" s="14">
+        <f t="shared" ref="A71:A134" si="1">A70+1</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A72" s="14">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A73" s="14">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A74" s="14">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A75" s="14">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A76" s="14">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A77" s="14">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A78" s="14">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A79" s="14">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A80" s="14">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" s="14">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A82" s="14">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A83" s="14">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A84" s="14">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A85" s="14">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A86" s="14">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A87" s="14">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A88" s="14">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A89" s="14">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A90" s="14">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A91" s="14">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A92" s="14">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A93" s="14">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A94" s="14">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A95" s="14">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A96" s="14">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97" s="14">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A98" s="14">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" s="14">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A100" s="14">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" s="14">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A102" s="14">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A103" s="14">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A104" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A105" s="14">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A106" s="14">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A107" s="14">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A108" s="14">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A109" s="14">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A110" s="14">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A111" s="14">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A112" s="14">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A113" s="14">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A114" s="14">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A115" s="14">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A116" s="14">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A117" s="14">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A118" s="14">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A119" s="14">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A120" s="14">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A121" s="14">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A122" s="14">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A123" s="14">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A124" s="14">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A125" s="14">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A126" s="14">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A127" s="14">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A128" s="14">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A129" s="14">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A130" s="14">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A131" s="14">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A132" s="14">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A133" s="14">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A134" s="14">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A135" s="14">
+        <f t="shared" ref="A135:A198" si="2">A134+1</f>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A136" s="14">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A137" s="14">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A138" s="14">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A139" s="14">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A140" s="14">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A141" s="14">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A142" s="14">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A143" s="14">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A144" s="14">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A145" s="14">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A146" s="14">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A147" s="14">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A148" s="14">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A149" s="14">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A150" s="14">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A151" s="14">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A152" s="14">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A153" s="14">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A154" s="14">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A155" s="14">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A156" s="14">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A157" s="14">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A158" s="14">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A159" s="14">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A160" s="14">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A161" s="14">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A162" s="14">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A163" s="14">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A164" s="14">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A165" s="14">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A166" s="14">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A167" s="14">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A168" s="14">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A169" s="14">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A170" s="14">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A171" s="14">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A172" s="14">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A173" s="14">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A174" s="14">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A175" s="14">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A176" s="14">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A177" s="14">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A178" s="14">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A179" s="14">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A180" s="14">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A181" s="14">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A182" s="14">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A183" s="14">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A184" s="14">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A185" s="14">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A186" s="14">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A187" s="14">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A188" s="14">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A189" s="14">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A190" s="14">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A191" s="14">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A192" s="14">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A193" s="14">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A194" s="14">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A195" s="14">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A196" s="14">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A197" s="14">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A198" s="14">
+        <f t="shared" si="2"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A199" s="14">
+        <f t="shared" ref="A199:A204" si="3">A198+1</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A200" s="14">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A201" s="14">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A202" s="14">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A203" s="14">
+        <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A204" s="14">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="F6" location="画像要求!A1" display="画像要求!A1" xr:uid="{92B2E96F-A71D-4155-9FD0-C2E62012DB13}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29DBEDF-AA2E-438C-88CF-7D98D40EA5A7}">
   <dimension ref="A1:F204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5740,14 +8538,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="22" t="s">
         <v>10</v>
       </c>
@@ -5756,14 +8554,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
@@ -5830,7 +8628,7 @@
       <c r="E6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="28" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7125,7 +9923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0428AC-5763-490A-8D89-A1265F763A81}">
   <dimension ref="A1:F204"/>
   <sheetViews>
@@ -7146,14 +9944,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="22" t="s">
         <v>10</v>
       </c>
@@ -7162,14 +9960,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
@@ -8504,7 +11302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C308319-88EE-4147-B9EB-46B151505F55}">
   <dimension ref="A1:F204"/>
   <sheetViews>
@@ -8525,14 +11323,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="22" t="s">
         <v>10</v>
       </c>
@@ -8541,14 +11339,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
@@ -10036,7 +12834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88470302-7F14-461B-8DAA-7E53EE0C95B0}">
   <dimension ref="A1:F204"/>
   <sheetViews>
@@ -10057,24 +12855,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="22" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="7" t="s">
         <v>11</v>
       </c>
